--- a/2,3,4,5 Comparison/W5_points.xlsx
+++ b/2,3,4,5 Comparison/W5_points.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i.pile/HSE Applied Statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i.pile/Documents/GitHub/diagrams2/2,3,4,5 Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A811E83A-2857-E349-A56B-B703FC594F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C1F52C-6952-7F43-A202-A5227ADA9B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21600" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>truncation_error</t>
   </si>
@@ -36,12 +46,39 @@
   <si>
     <t>Nup_total</t>
   </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Хороший</t>
+  </si>
+  <si>
+    <t>Непонятная фраза</t>
+  </si>
+  <si>
+    <t>Непонятно, что имелось ввиду</t>
+  </si>
+  <si>
+    <t>Не услышали</t>
+  </si>
+  <si>
+    <t>Плохой</t>
+  </si>
+  <si>
+    <t>Невозможно оценить</t>
+  </si>
+  <si>
+    <t>Нейтральный</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +93,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF767676"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,17 +140,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,15 +492,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -466,10 +524,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>-1.578598363138894E-16</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-11.11423572039039</v>
+        <v>-3.7261824099330001</v>
       </c>
       <c r="C2">
         <v>40</v>
@@ -478,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -500,19 +558,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-1.2490009027033011E-16</v>
+        <v>-1.578598363138894E-16</v>
       </c>
       <c r="B4">
-        <v>-12.99180158671399</v>
+        <v>-11.11423572039039</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -534,61 +592,62 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.4317184615898769E-15</v>
+        <v>-2.488015684005168E-17</v>
       </c>
       <c r="B6">
-        <v>-31.03683474122526</v>
+        <v>-18.34013499385652</v>
       </c>
       <c r="C6">
         <v>40</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2.7169564341400498E-15</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-20.354698358662141</v>
+        <v>-21.864516943262</v>
       </c>
       <c r="C7">
         <v>40</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2.5543862476064788E-15</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>-23.975366116460389</v>
+        <v>-25.315706964743999</v>
       </c>
       <c r="C8">
         <v>40</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-2.488015684005168E-17</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>-18.34013499385652</v>
+        <f>-28.6836164498266</f>
+        <v>-28.683616449826602</v>
       </c>
       <c r="C9">
         <v>40</v>
@@ -597,276 +656,276 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2.1298821351137942E-15</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>-27.539830138256139</v>
+        <v>-31.958645624691801</v>
       </c>
       <c r="C10">
         <v>40</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.4484941024406339E-15</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>-16.689517768606109</v>
+        <v>-35.131739611815902</v>
       </c>
       <c r="C11">
         <v>40</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2.9419860501728349E-15</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>-34.455646338081173</v>
+        <v>-38.194441790733897</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.515914514593358E-12</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>-56.08426416982909</v>
+        <v>-41.188573420691398</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2.2204460492503131E-16</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>-9.2731204129026352</v>
+        <v>-44.165134254744103</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2.3225329975100009E-10</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>-118.9457359399217</v>
+        <v>-47.112525063843499</v>
       </c>
       <c r="C15">
         <v>40</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>5.6655366554888641E-10</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="B16">
-        <v>-127.87585945353931</v>
+        <v>-9.2731204129026352</v>
       </c>
       <c r="C16">
         <v>40</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>3.3636616354186869E-8</v>
+        <v>-1.2490009027033011E-16</v>
       </c>
       <c r="B17">
-        <v>-143.37922031305649</v>
+        <v>-12.99180158671399</v>
       </c>
       <c r="C17">
         <v>40</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>2.3772837208631972E-9</v>
+        <v>1.4484941024406339E-15</v>
       </c>
       <c r="B18">
-        <v>-107.9077937217457</v>
+        <v>-16.689517768606109</v>
       </c>
       <c r="C18">
         <v>40</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.01516744723303E-8</v>
+        <v>2.7169564341400498E-15</v>
       </c>
       <c r="B19">
-        <v>-125.70441130384999</v>
+        <v>-20.354698358662141</v>
       </c>
       <c r="C19">
         <v>40</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4.3968162902538432E-10</v>
+        <v>2.5543862476064788E-15</v>
       </c>
       <c r="B20">
-        <v>-89.956778651326971</v>
+        <v>-23.975366116460389</v>
       </c>
       <c r="C20">
         <v>40</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.355506540292044E-11</v>
+        <v>2.1298821351137942E-15</v>
       </c>
       <c r="B21">
-        <v>-91.95438518569641</v>
+        <v>-27.539830138256139</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.045169384210718E-10</v>
+        <v>3.4317184615898769E-15</v>
       </c>
       <c r="B22">
-        <v>-109.9835726766329</v>
+        <v>-31.03683474122526</v>
       </c>
       <c r="C22">
         <v>40</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>7.1410885443793129E-11</v>
+        <v>2.9419860501728349E-15</v>
       </c>
       <c r="B23">
-        <v>-71.83622897158132</v>
+        <v>-34.455646338081173</v>
       </c>
       <c r="C23">
         <v>40</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.9923592211118442E-11</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>-62.715947047840338</v>
+        <v>-37.786121734386199</v>
       </c>
       <c r="C24">
         <v>40</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.5481138035814449E-10</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>-80.917442538931056</v>
+        <v>-41.0187704510084</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -874,70 +933,70 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.048002559035417E-9</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>-98.953202701958901</v>
+        <v>-44.187665311537501</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1.8841576670753961E-8</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>-134.5546294905418</v>
+        <v>-47.294543709229401</v>
       </c>
       <c r="C27">
         <v>40</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5.4990338699031933E-9</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>-116.82353245490729</v>
+        <v>-50.288154912455099</v>
       </c>
       <c r="C28">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>3.8955509319177513E-11</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>-100.9870828944578</v>
+        <v>-53.275105450782497</v>
       </c>
       <c r="C29">
         <v>40</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -945,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>-21.864516943262</v>
+        <v>-18.540411801129</v>
       </c>
       <c r="C30">
         <v>40</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -962,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>-25.315706964743999</v>
+        <v>-25.934282657712</v>
       </c>
       <c r="C31">
         <v>40</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -979,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>-3.7261824099330001</v>
+        <v>-27.797674972947</v>
       </c>
       <c r="C32">
         <v>40</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -996,16 +1055,16 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>-18.540411801129</v>
+        <v>-35.164656600999997</v>
       </c>
       <c r="C33">
         <v>40</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1013,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>-27.797674972947</v>
+        <v>-37.040494805179002</v>
       </c>
       <c r="C34">
         <v>40</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1030,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>-37.040494805179002</v>
+        <v>-44.375174546300002</v>
       </c>
       <c r="C35">
         <v>40</v>
@@ -1039,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1064,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>-55.464733111146998</v>
+        <v>-53.5606567568</v>
       </c>
       <c r="C37">
         <v>40</v>
       </c>
       <c r="D37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1081,30 +1140,30 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>-64.637322853255</v>
+        <v>-55.464733111146998</v>
       </c>
       <c r="C38">
         <v>40</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0</v>
+        <v>1.9923592211118442E-11</v>
       </c>
       <c r="B39">
-        <v>-73.778092555756999</v>
+        <v>-62.715947047840338</v>
       </c>
       <c r="C39">
         <v>40</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -1115,33 +1174,33 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>-82.882112219758</v>
+        <v>-64.637322853255</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E40">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0</v>
+        <v>7.1410885443793129E-11</v>
       </c>
       <c r="B41">
-        <v>-25.934282657712</v>
+        <v>-71.83622897158132</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1149,33 +1208,33 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>-35.164656600999997</v>
+        <v>-73.778092555756999</v>
       </c>
       <c r="C42">
         <v>40</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0</v>
+        <v>1.5481138035814449E-10</v>
       </c>
       <c r="B43">
-        <v>-44.375174546300002</v>
+        <v>-80.917442538931056</v>
       </c>
       <c r="C43">
         <v>40</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1183,19 +1242,625 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>-53.5606567568</v>
+        <v>-82.882112219758</v>
       </c>
       <c r="C44">
         <v>40</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4.3968162902538432E-10</v>
+      </c>
+      <c r="B45">
+        <v>-89.956778651326971</v>
+      </c>
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1.355506540292044E-11</v>
+      </c>
+      <c r="B46">
+        <v>-91.95438518569641</v>
+      </c>
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1.048002559035417E-9</v>
+      </c>
+      <c r="B47">
+        <v>-98.953202701958901</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3.8955509319177513E-11</v>
+      </c>
+      <c r="B48">
+        <v>-100.9870828944578</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2.3772837208631972E-9</v>
+      </c>
+      <c r="B49">
+        <v>-107.9077937217457</v>
+      </c>
+      <c r="C49">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1.045169384210718E-10</v>
+      </c>
+      <c r="B50">
+        <v>-109.9835726766329</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5.4990338699031933E-9</v>
+      </c>
+      <c r="B51">
+        <v>-116.82353245490729</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+      <c r="D51">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2.3225329975100009E-10</v>
+      </c>
+      <c r="B52">
+        <v>-118.9457359399217</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1.01516744723303E-8</v>
+      </c>
+      <c r="B53">
+        <v>-125.70441130384999</v>
+      </c>
+      <c r="C53">
+        <v>40</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5.6655366554888641E-10</v>
+      </c>
+      <c r="B54">
+        <v>-127.87585945353931</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1.8841576670753961E-8</v>
+      </c>
+      <c r="B55">
+        <v>-134.5546294905418</v>
+      </c>
+      <c r="C55">
+        <v>40</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3.3636616354186869E-8</v>
+      </c>
+      <c r="B56">
+        <v>-143.37922031305649</v>
+      </c>
+      <c r="C56">
+        <v>40</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E56">
+    <sortCondition ref="D2:D56"/>
+    <sortCondition ref="E2:E56"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2400E7A3-6620-5B43-B476-D78EFC84E27E}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1465</v>
+      </c>
+      <c r="E1" s="4">
+        <f>D1/$D$8</f>
+        <v>0.66621191450659389</v>
+      </c>
+      <c r="F1" t="str">
+        <f>C1</f>
+        <v>Хороший</v>
+      </c>
+      <c r="G1" s="5">
+        <f>E1</f>
+        <v>0.66621191450659389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>53</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E7" si="0">D2/$D$8</f>
+        <v>2.4101864483856299E-2</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F7" si="1">C2</f>
+        <v>Непонятная фраза</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:G7" si="2">E2</f>
+        <v>2.4101864483856299E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>1.364256480218281E-3</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
+        <v>Непонятно, что имелось ввиду</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="2"/>
+        <v>1.364256480218281E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8212824010914054E-3</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Не услышали</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
+        <v>6.8212824010914054E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>348</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15825375170532061</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>Плохой</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.15825375170532061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9104138244656661E-2</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>Невозможно оценить</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9104138244656661E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44543</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>251</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11414279217826284</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>Нейтральный</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.11414279217826284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>SUM(D1:D7)</f>
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4">
+        <f>D10/$D$17</f>
+        <v>2.3890784982935155E-2</v>
+      </c>
+      <c r="F10" t="str">
+        <f>C11</f>
+        <v>Хороший</v>
+      </c>
+      <c r="G10" s="5">
+        <f>E11</f>
+        <v>0.66942954656265241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1373</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" ref="E11:E16" si="3">D11/$D$17</f>
+        <v>0.66942954656265241</v>
+      </c>
+      <c r="F11" t="str">
+        <f>C16</f>
+        <v>Непонятная фраза</v>
+      </c>
+      <c r="G11" s="5">
+        <f>E16</f>
+        <v>1.9990248659190638E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>313</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="3"/>
+        <v>0.15260848366650415</v>
+      </c>
+      <c r="F12" t="str">
+        <f>C14</f>
+        <v>Непонятно, что имелось ввиду</v>
+      </c>
+      <c r="G12" s="5">
+        <f>E14</f>
+        <v>3.4129692832764505E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>250</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="3"/>
+        <v>0.12189176011701609</v>
+      </c>
+      <c r="F13" t="str">
+        <f>C15</f>
+        <v>Не услышали</v>
+      </c>
+      <c r="G13" s="5">
+        <f>E15</f>
+        <v>8.7762067284251587E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="3"/>
+        <v>3.4129692832764505E-3</v>
+      </c>
+      <c r="F14" t="str">
+        <f>C12</f>
+        <v>Плохой</v>
+      </c>
+      <c r="G14" s="5">
+        <f>E12</f>
+        <v>0.15260848366650415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>8.7762067284251587E-3</v>
+      </c>
+      <c r="F15" t="str">
+        <f>C10</f>
+        <v>Невозможно оценить</v>
+      </c>
+      <c r="G15" s="5">
+        <f>E10</f>
+        <v>2.3890784982935155E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="3"/>
+        <v>1.9990248659190638E-2</v>
+      </c>
+      <c r="F16" t="str">
+        <f>C13</f>
+        <v>Нейтральный</v>
+      </c>
+      <c r="G16" s="5">
+        <f>E13</f>
+        <v>0.12189176011701609</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>SUM(D10:D16)</f>
+        <v>2051</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>